--- a/downloads/export.xlsx
+++ b/downloads/export.xlsx
@@ -10,8 +10,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -42,8 +43,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,99 +377,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>Nome</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>Sobrenome</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>CPF</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>CPF_CHECK</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="1" t="str">
         <v>status</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Gustavo</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Martins</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <v>387.543.698-94</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="1" t="str">
         <v>38754369894</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="1" t="str">
         <v>Correto</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" s="1" t="str">
         <v xml:space="preserve">Geraldo </v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <v>Antunes</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <v>650.487.018-79</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="1" t="str">
         <v>65048701879</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="1" t="str">
         <v>Correto</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" s="1" t="str">
         <v>Leticia</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>Souza</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>900.779.398-59</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="1" t="str">
         <v>90077939859</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="1" t="str">
         <v>Correto</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" s="1" t="str">
         <v>Lais</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <v>Oliveira</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>570.034.578-14</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="1" t="str">
         <v>57003457814</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="1" t="str">
         <v>Correto</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>Sulivan</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>Duarte</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>5704.034.5778-14</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <v>5704034577814</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>Errado</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>Mauro</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>Mateus</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <v>570a.034.57h8-14</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>57003457814</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v>Corrigido</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>Sergio</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>Ramalho</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>5170.0sd34.5798-14</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v>5170034579814</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <v>Errado</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
   </ignoredErrors>
 </worksheet>
 </file>